--- a/ANOVA.xlsx
+++ b/ANOVA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jntil\Google Drive\01 - Classes\Engineering\ENGR 488 (Design of Experiments)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jntil\Google Drive\01 - Classes\Engineering\ENGR 488 (Design of Experiments)\Midtermstuff\design-of-experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726AEF4A-7BDB-4998-BDA5-359B5FCC9777}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192BF723-C48C-49CF-B8BB-F0D17864ACEE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7425" xr2:uid="{0202CEFB-7C08-4C0C-B5BC-A04866B4DF2E}"/>
   </bookViews>
@@ -323,24 +323,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -355,6 +340,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,10 +673,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N36"/>
+  <dimension ref="A2:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,32 +687,33 @@
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="8" width="16.85546875" customWidth="1"/>
     <col min="9" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="11" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="19"/>
+      <c r="D2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
@@ -731,15 +732,16 @@
       <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="8"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
@@ -755,18 +757,19 @@
         <v>13</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="8"/>
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
@@ -783,57 +786,58 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="8"/>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="D10" s="8" t="s">
+      <c r="B10" s="19"/>
+      <c r="D10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="17"/>
       <c r="D11" s="3" t="s">
         <v>0</v>
       </c>
@@ -852,15 +856,16 @@
       <c r="K11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="8"/>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
@@ -872,25 +877,26 @@
         <v>21</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="6"/>
+      <c r="M12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="8"/>
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
@@ -902,22 +908,23 @@
         <v>25</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="6"/>
+      <c r="M13" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="8"/>
       <c r="D14" s="2" t="s">
         <v>1</v>
       </c>
@@ -929,77 +936,80 @@
         <v>12</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="16"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="D20" s="8" t="s">
+      <c r="B20" s="19"/>
+      <c r="D20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="17"/>
       <c r="D21" s="3" t="s">
         <v>0</v>
       </c>
@@ -1018,15 +1028,16 @@
       <c r="K21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2" t="s">
         <v>2</v>
@@ -1043,18 +1054,19 @@
         <v>13</v>
       </c>
       <c r="J22" s="5"/>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="14"/>
+      <c r="M22" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2" t="s">
         <v>1</v>
@@ -1073,63 +1085,66 @@
       <c r="J23" s="5"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="17"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="9"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="D28" s="8" t="s">
+      <c r="B28" s="19"/>
+      <c r="D28" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="17"/>
       <c r="D29" s="3" t="s">
         <v>0</v>
       </c>
@@ -1148,15 +1163,16 @@
       <c r="K29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="8"/>
       <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
@@ -1168,22 +1184,23 @@
         <v>21</v>
       </c>
       <c r="H30" s="4"/>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="6"/>
+      <c r="M30" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="8"/>
       <c r="D31" s="2" t="s">
         <v>23</v>
       </c>
@@ -1195,22 +1212,23 @@
         <v>25</v>
       </c>
       <c r="H31" s="4"/>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="6"/>
+      <c r="M31" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="8"/>
       <c r="D32" s="2" t="s">
         <v>1</v>
       </c>
@@ -1222,66 +1240,68 @@
         <v>12</v>
       </c>
       <c r="H32" s="4"/>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="8"/>
       <c r="D33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17" t="s">
+      <c r="F33" s="12"/>
+      <c r="G33" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="17"/>
+      <c r="H33" s="12"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="9"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="9"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D20:M20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:L28"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="54" orientation="landscape" r:id="rId1"/>
@@ -1312,27 +1332,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="19"/>
+      <c r="D2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1356,10 +1376,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="8"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1375,7 +1395,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1383,10 +1403,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="8"/>
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1402,62 +1422,62 @@
         <v>15</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="20"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="8"/>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="16"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="19"/>
+      <c r="D11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="17"/>
       <c r="D12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1481,10 +1501,10 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1"/>
       <c r="D13" s="2" t="s">
         <v>2</v>
@@ -1501,7 +1521,7 @@
         <v>13</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
@@ -1509,10 +1529,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2" t="s">
         <v>1</v>
@@ -1529,65 +1549,65 @@
         <v>15</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="20"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="D20" s="8" t="s">
+      <c r="B20" s="19"/>
+      <c r="D20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="17"/>
       <c r="D21" s="3" t="s">
         <v>0</v>
       </c>
@@ -1611,10 +1631,10 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2" t="s">
         <v>2</v>
@@ -1631,7 +1651,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="5"/>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
@@ -1639,10 +1659,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2" t="s">
         <v>1</v>
@@ -1659,65 +1679,65 @@
         <v>15</v>
       </c>
       <c r="J23" s="5"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="15"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="17"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="D28" s="8" t="s">
+      <c r="B28" s="19"/>
+      <c r="D28" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="17"/>
       <c r="D29" s="3" t="s">
         <v>0</v>
       </c>
@@ -1741,10 +1761,10 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="1"/>
       <c r="D30" s="2" t="s">
         <v>2</v>
@@ -1761,7 +1781,7 @@
         <v>13</v>
       </c>
       <c r="J30" s="5"/>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L30" s="7" t="s">
@@ -1769,10 +1789,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="1"/>
       <c r="D31" s="2" t="s">
         <v>1</v>
@@ -1789,65 +1809,65 @@
         <v>15</v>
       </c>
       <c r="J31" s="5"/>
-      <c r="K31" s="20"/>
+      <c r="K31" s="15"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="1"/>
       <c r="D32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17" t="s">
+      <c r="F32" s="12"/>
+      <c r="G32" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="17"/>
+      <c r="H32" s="12"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="8"/>
     </row>
     <row r="34" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="8"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="D38" s="8" t="s">
+      <c r="B38" s="19"/>
+      <c r="D38" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="15"/>
+      <c r="B39" s="17"/>
       <c r="D39" s="3" t="s">
         <v>0</v>
       </c>
@@ -1871,10 +1891,10 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2" t="s">
         <v>2</v>
@@ -1891,7 +1911,7 @@
         <v>13</v>
       </c>
       <c r="J40" s="5"/>
-      <c r="K40" s="19" t="s">
+      <c r="K40" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L40" s="7" t="s">
@@ -1899,10 +1919,10 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2" t="s">
         <v>1</v>
@@ -1919,68 +1939,68 @@
         <v>15</v>
       </c>
       <c r="J41" s="5"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="15"/>
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17" t="s">
+      <c r="F42" s="12"/>
+      <c r="G42" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="17"/>
+      <c r="H42" s="12"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="8"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="8"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C46" s="16"/>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="D47" s="8" t="s">
+      <c r="B47" s="19"/>
+      <c r="D47" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="15"/>
+      <c r="B48" s="17"/>
       <c r="D48" s="3" t="s">
         <v>0</v>
       </c>
@@ -2004,10 +2024,10 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="9"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="1"/>
       <c r="D49" s="2" t="s">
         <v>2</v>
@@ -2024,7 +2044,7 @@
         <v>13</v>
       </c>
       <c r="J49" s="5"/>
-      <c r="K49" s="19" t="s">
+      <c r="K49" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L49" s="7" t="s">
@@ -2032,10 +2052,10 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="9"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="1"/>
       <c r="D50" s="2" t="s">
         <v>1</v>
@@ -2052,65 +2072,65 @@
         <v>15</v>
       </c>
       <c r="J50" s="5"/>
-      <c r="K50" s="20"/>
+      <c r="K50" s="15"/>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="9"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="1"/>
       <c r="D51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17" t="s">
+      <c r="F51" s="12"/>
+      <c r="G51" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="17"/>
+      <c r="H51" s="12"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="9"/>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="9"/>
+      <c r="B53" s="8"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="D56" s="8" t="s">
+      <c r="B56" s="19"/>
+      <c r="D56" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="15"/>
+      <c r="B57" s="17"/>
       <c r="D57" s="3" t="s">
         <v>0</v>
       </c>
@@ -2134,10 +2154,10 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="9"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="1"/>
       <c r="D58" s="2" t="s">
         <v>2</v>
@@ -2154,7 +2174,7 @@
         <v>13</v>
       </c>
       <c r="J58" s="5"/>
-      <c r="K58" s="19" t="s">
+      <c r="K58" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L58" s="7" t="s">
@@ -2162,10 +2182,10 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="9"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2" t="s">
         <v>1</v>
@@ -2182,65 +2202,65 @@
         <v>15</v>
       </c>
       <c r="J59" s="5"/>
-      <c r="K59" s="20"/>
+      <c r="K59" s="15"/>
       <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="9"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="1"/>
       <c r="D60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17" t="s">
+      <c r="F60" s="12"/>
+      <c r="G60" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H60" s="17"/>
+      <c r="H60" s="12"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B61" s="9"/>
+      <c r="B61" s="8"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="9"/>
+      <c r="B62" s="8"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="D64" s="8" t="s">
+      <c r="B64" s="19"/>
+      <c r="D64" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="15"/>
+      <c r="B65" s="17"/>
       <c r="D65" s="3" t="s">
         <v>0</v>
       </c>
@@ -2264,10 +2284,10 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="9"/>
+      <c r="B66" s="8"/>
       <c r="C66" s="1"/>
       <c r="D66" s="2" t="s">
         <v>2</v>
@@ -2284,7 +2304,7 @@
         <v>13</v>
       </c>
       <c r="J66" s="5"/>
-      <c r="K66" s="19" t="s">
+      <c r="K66" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L66" s="7" t="s">
@@ -2292,10 +2312,10 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="9"/>
+      <c r="B67" s="8"/>
       <c r="C67" s="1"/>
       <c r="D67" s="2" t="s">
         <v>1</v>
@@ -2312,65 +2332,65 @@
         <v>15</v>
       </c>
       <c r="J67" s="5"/>
-      <c r="K67" s="20"/>
+      <c r="K67" s="15"/>
       <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B68" s="9"/>
+      <c r="B68" s="8"/>
       <c r="C68" s="1"/>
       <c r="D68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17" t="s">
+      <c r="F68" s="12"/>
+      <c r="G68" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H68" s="17"/>
+      <c r="H68" s="12"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B69" s="9"/>
+      <c r="B69" s="8"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="9"/>
+      <c r="B70" s="8"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="13"/>
-      <c r="D74" s="8" t="s">
+      <c r="B74" s="19"/>
+      <c r="D74" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B75" s="15"/>
+      <c r="B75" s="17"/>
       <c r="D75" s="3" t="s">
         <v>0</v>
       </c>
@@ -2394,10 +2414,10 @@
       </c>
     </row>
     <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B76" s="9"/>
+      <c r="B76" s="8"/>
       <c r="C76" s="1"/>
       <c r="D76" s="2" t="s">
         <v>2</v>
@@ -2414,7 +2434,7 @@
         <v>13</v>
       </c>
       <c r="J76" s="5"/>
-      <c r="K76" s="19" t="s">
+      <c r="K76" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L76" s="7" t="s">
@@ -2422,10 +2442,10 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="9"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2" t="s">
         <v>1</v>
@@ -2442,68 +2462,68 @@
         <v>15</v>
       </c>
       <c r="J77" s="5"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="15"/>
       <c r="L77" s="1"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B78" s="9"/>
+      <c r="B78" s="8"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17" t="s">
+      <c r="F78" s="12"/>
+      <c r="G78" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H78" s="17"/>
+      <c r="H78" s="12"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B79" s="9"/>
+      <c r="B79" s="8"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="9"/>
+      <c r="B80" s="8"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C82" s="16"/>
+      <c r="C82" s="11"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B83" s="13"/>
-      <c r="D83" s="8" t="s">
+      <c r="B83" s="19"/>
+      <c r="D83" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B84" s="15"/>
+      <c r="B84" s="17"/>
       <c r="D84" s="3" t="s">
         <v>0</v>
       </c>
@@ -2527,10 +2547,10 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B85" s="9"/>
+      <c r="B85" s="8"/>
       <c r="C85" s="1"/>
       <c r="D85" s="2" t="s">
         <v>2</v>
@@ -2547,7 +2567,7 @@
         <v>13</v>
       </c>
       <c r="J85" s="5"/>
-      <c r="K85" s="19" t="s">
+      <c r="K85" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L85" s="7" t="s">
@@ -2555,10 +2575,10 @@
       </c>
     </row>
     <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="9"/>
+      <c r="B86" s="8"/>
       <c r="C86" s="1"/>
       <c r="D86" s="2" t="s">
         <v>1</v>
@@ -2575,65 +2595,65 @@
         <v>15</v>
       </c>
       <c r="J86" s="5"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="15"/>
       <c r="L86" s="1"/>
     </row>
     <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B87" s="9"/>
+      <c r="B87" s="8"/>
       <c r="C87" s="1"/>
       <c r="D87" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E87" s="17" t="s">
+      <c r="E87" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17" t="s">
+      <c r="F87" s="12"/>
+      <c r="G87" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H87" s="17"/>
+      <c r="H87" s="12"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B88" s="9"/>
+      <c r="B88" s="8"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B89" s="9"/>
+      <c r="B89" s="8"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="D92" s="8" t="s">
+      <c r="B92" s="19"/>
+      <c r="D92" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B93" s="15"/>
+      <c r="B93" s="17"/>
       <c r="D93" s="3" t="s">
         <v>0</v>
       </c>
@@ -2657,10 +2677,10 @@
       </c>
     </row>
     <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B94" s="9"/>
+      <c r="B94" s="8"/>
       <c r="C94" s="1"/>
       <c r="D94" s="2" t="s">
         <v>2</v>
@@ -2677,7 +2697,7 @@
         <v>13</v>
       </c>
       <c r="J94" s="5"/>
-      <c r="K94" s="19" t="s">
+      <c r="K94" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L94" s="7" t="s">
@@ -2685,10 +2705,10 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="9"/>
+      <c r="B95" s="8"/>
       <c r="C95" s="1"/>
       <c r="D95" s="2" t="s">
         <v>1</v>
@@ -2705,65 +2725,65 @@
         <v>15</v>
       </c>
       <c r="J95" s="5"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="15"/>
       <c r="L95" s="1"/>
     </row>
     <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B96" s="9"/>
+      <c r="B96" s="8"/>
       <c r="C96" s="1"/>
       <c r="D96" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="17" t="s">
+      <c r="E96" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17" t="s">
+      <c r="F96" s="12"/>
+      <c r="G96" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H96" s="17"/>
+      <c r="H96" s="12"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B97" s="9"/>
+      <c r="B97" s="8"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B98" s="9"/>
+      <c r="B98" s="8"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B100" s="13"/>
-      <c r="D100" s="8" t="s">
+      <c r="B100" s="19"/>
+      <c r="D100" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="15"/>
+      <c r="B101" s="17"/>
       <c r="D101" s="3" t="s">
         <v>0</v>
       </c>
@@ -2787,10 +2807,10 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="9"/>
+      <c r="B102" s="8"/>
       <c r="C102" s="1"/>
       <c r="D102" s="2" t="s">
         <v>2</v>
@@ -2807,7 +2827,7 @@
         <v>13</v>
       </c>
       <c r="J102" s="5"/>
-      <c r="K102" s="19" t="s">
+      <c r="K102" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L102" s="7" t="s">
@@ -2815,10 +2835,10 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B103" s="9"/>
+      <c r="B103" s="8"/>
       <c r="C103" s="1"/>
       <c r="D103" s="2" t="s">
         <v>1</v>
@@ -2835,65 +2855,65 @@
         <v>15</v>
       </c>
       <c r="J103" s="5"/>
-      <c r="K103" s="20"/>
+      <c r="K103" s="15"/>
       <c r="L103" s="1"/>
     </row>
     <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B104" s="9"/>
+      <c r="B104" s="8"/>
       <c r="C104" s="1"/>
       <c r="D104" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E104" s="17" t="s">
+      <c r="E104" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17" t="s">
+      <c r="F104" s="12"/>
+      <c r="G104" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H104" s="17"/>
+      <c r="H104" s="12"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B105" s="9"/>
+      <c r="B105" s="8"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B106" s="9"/>
+      <c r="B106" s="8"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B110" s="13"/>
-      <c r="D110" s="8" t="s">
+      <c r="B110" s="19"/>
+      <c r="D110" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="20"/>
+      <c r="L110" s="20"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B111" s="15"/>
+      <c r="B111" s="17"/>
       <c r="D111" s="3" t="s">
         <v>0</v>
       </c>
@@ -2917,10 +2937,10 @@
       </c>
     </row>
     <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B112" s="9"/>
+      <c r="B112" s="8"/>
       <c r="C112" s="1"/>
       <c r="D112" s="2" t="s">
         <v>2</v>
@@ -2937,7 +2957,7 @@
         <v>13</v>
       </c>
       <c r="J112" s="5"/>
-      <c r="K112" s="19" t="s">
+      <c r="K112" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L112" s="7" t="s">
@@ -2945,10 +2965,10 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B113" s="9"/>
+      <c r="B113" s="8"/>
       <c r="C113" s="1"/>
       <c r="D113" s="2" t="s">
         <v>1</v>
@@ -2965,68 +2985,68 @@
         <v>15</v>
       </c>
       <c r="J113" s="5"/>
-      <c r="K113" s="20"/>
+      <c r="K113" s="15"/>
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B114" s="9"/>
+      <c r="B114" s="8"/>
       <c r="C114" s="1"/>
       <c r="D114" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E114" s="17" t="s">
+      <c r="E114" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17" t="s">
+      <c r="F114" s="12"/>
+      <c r="G114" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H114" s="17"/>
+      <c r="H114" s="12"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B115" s="9"/>
+      <c r="B115" s="8"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B116" s="9"/>
+      <c r="B116" s="8"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C118" s="16"/>
+      <c r="C118" s="11"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B119" s="13"/>
-      <c r="D119" s="8" t="s">
+      <c r="B119" s="19"/>
+      <c r="D119" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
-      <c r="L119" s="8"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="20"/>
+      <c r="K119" s="20"/>
+      <c r="L119" s="20"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B120" s="15"/>
+      <c r="B120" s="17"/>
       <c r="D120" s="3" t="s">
         <v>0</v>
       </c>
@@ -3050,10 +3070,10 @@
       </c>
     </row>
     <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B121" s="9"/>
+      <c r="B121" s="8"/>
       <c r="C121" s="1"/>
       <c r="D121" s="2" t="s">
         <v>2</v>
@@ -3070,7 +3090,7 @@
         <v>13</v>
       </c>
       <c r="J121" s="5"/>
-      <c r="K121" s="19" t="s">
+      <c r="K121" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L121" s="7" t="s">
@@ -3078,10 +3098,10 @@
       </c>
     </row>
     <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B122" s="9"/>
+      <c r="B122" s="8"/>
       <c r="C122" s="1"/>
       <c r="D122" s="2" t="s">
         <v>1</v>
@@ -3098,65 +3118,65 @@
         <v>15</v>
       </c>
       <c r="J122" s="5"/>
-      <c r="K122" s="20"/>
+      <c r="K122" s="15"/>
       <c r="L122" s="1"/>
     </row>
     <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B123" s="9"/>
+      <c r="B123" s="8"/>
       <c r="C123" s="1"/>
       <c r="D123" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E123" s="17" t="s">
+      <c r="E123" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17" t="s">
+      <c r="F123" s="12"/>
+      <c r="G123" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H123" s="17"/>
+      <c r="H123" s="12"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B124" s="9"/>
+      <c r="B124" s="8"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B125" s="9"/>
+      <c r="B125" s="8"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B128" s="13"/>
-      <c r="D128" s="8" t="s">
+      <c r="B128" s="19"/>
+      <c r="D128" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="8"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="20"/>
+      <c r="K128" s="20"/>
+      <c r="L128" s="20"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B129" s="15"/>
+      <c r="B129" s="17"/>
       <c r="D129" s="3" t="s">
         <v>0</v>
       </c>
@@ -3180,10 +3200,10 @@
       </c>
     </row>
     <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B130" s="9"/>
+      <c r="B130" s="8"/>
       <c r="C130" s="1"/>
       <c r="D130" s="2" t="s">
         <v>2</v>
@@ -3200,7 +3220,7 @@
         <v>13</v>
       </c>
       <c r="J130" s="5"/>
-      <c r="K130" s="19" t="s">
+      <c r="K130" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L130" s="7" t="s">
@@ -3208,10 +3228,10 @@
       </c>
     </row>
     <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B131" s="9"/>
+      <c r="B131" s="8"/>
       <c r="C131" s="1"/>
       <c r="D131" s="2" t="s">
         <v>1</v>
@@ -3228,65 +3248,65 @@
         <v>15</v>
       </c>
       <c r="J131" s="5"/>
-      <c r="K131" s="20"/>
+      <c r="K131" s="15"/>
       <c r="L131" s="1"/>
     </row>
     <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B132" s="9"/>
+      <c r="B132" s="8"/>
       <c r="C132" s="1"/>
       <c r="D132" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E132" s="17" t="s">
+      <c r="E132" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F132" s="17"/>
-      <c r="G132" s="17" t="s">
+      <c r="F132" s="12"/>
+      <c r="G132" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H132" s="17"/>
+      <c r="H132" s="12"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B133" s="9"/>
+      <c r="B133" s="8"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B134" s="9"/>
+      <c r="B134" s="8"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="12" t="s">
+      <c r="A136" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B136" s="13"/>
-      <c r="D136" s="8" t="s">
+      <c r="B136" s="19"/>
+      <c r="D136" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
-      <c r="J136" s="8"/>
-      <c r="K136" s="8"/>
-      <c r="L136" s="8"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="20"/>
+      <c r="K136" s="20"/>
+      <c r="L136" s="20"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B137" s="15"/>
+      <c r="B137" s="17"/>
       <c r="D137" s="3" t="s">
         <v>0</v>
       </c>
@@ -3310,10 +3330,10 @@
       </c>
     </row>
     <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B138" s="9"/>
+      <c r="B138" s="8"/>
       <c r="C138" s="1"/>
       <c r="D138" s="2" t="s">
         <v>2</v>
@@ -3330,7 +3350,7 @@
         <v>13</v>
       </c>
       <c r="J138" s="5"/>
-      <c r="K138" s="19" t="s">
+      <c r="K138" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L138" s="7" t="s">
@@ -3338,10 +3358,10 @@
       </c>
     </row>
     <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B139" s="9"/>
+      <c r="B139" s="8"/>
       <c r="C139" s="1"/>
       <c r="D139" s="2" t="s">
         <v>1</v>
@@ -3358,50 +3378,81 @@
         <v>15</v>
       </c>
       <c r="J139" s="5"/>
-      <c r="K139" s="20"/>
+      <c r="K139" s="15"/>
       <c r="L139" s="1"/>
     </row>
     <row r="140" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B140" s="9"/>
+      <c r="B140" s="8"/>
       <c r="C140" s="1"/>
       <c r="D140" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E140" s="17" t="s">
+      <c r="E140" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F140" s="17"/>
-      <c r="G140" s="17" t="s">
+      <c r="F140" s="12"/>
+      <c r="G140" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H140" s="17"/>
+      <c r="H140" s="12"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B141" s="9"/>
+      <c r="B141" s="8"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B142" s="9"/>
+      <c r="B142" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="D128:L128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="D136:L136"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:L38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:L47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:L56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:L64"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:L74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:L83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="D92:L92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:L100"/>
     <mergeCell ref="A137:B137"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="D110:L110"/>
@@ -3409,42 +3460,11 @@
     <mergeCell ref="A119:B119"/>
     <mergeCell ref="D119:L119"/>
     <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="D92:L92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:L100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:L74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:L83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:L56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D64:L64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:L38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:L47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="D128:L128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="D136:L136"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3473,28 +3493,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="19"/>
+      <c r="D2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3519,10 +3539,10 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="8"/>
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
@@ -3534,7 +3554,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="5"/>
@@ -3550,10 +3570,10 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="8"/>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
@@ -3565,7 +3585,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="5"/>
@@ -3578,10 +3598,10 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="8"/>
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3593,7 +3613,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="5"/>
@@ -3602,21 +3622,21 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="8"/>
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -3624,46 +3644,46 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="19"/>
+      <c r="D12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="17"/>
       <c r="D13" s="3" t="s">
         <v>0</v>
       </c>
@@ -3688,10 +3708,10 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="8"/>
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
@@ -3703,7 +3723,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J14" s="5"/>
@@ -3719,10 +3739,10 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
@@ -3734,7 +3754,7 @@
         <v>25</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="5"/>
@@ -3747,10 +3767,10 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="8"/>
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
@@ -3762,7 +3782,7 @@
         <v>12</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="5"/>
@@ -3771,21 +3791,21 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
       <c r="D17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3793,46 +3813,46 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="D22" s="8" t="s">
+      <c r="B22" s="19"/>
+      <c r="D22" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="17"/>
       <c r="D23" s="3" t="s">
         <v>0</v>
       </c>
@@ -3857,10 +3877,10 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="8"/>
       <c r="D24" s="2" t="s">
         <v>19</v>
       </c>
@@ -3872,7 +3892,7 @@
         <v>21</v>
       </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="5"/>
@@ -3888,10 +3908,10 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="8"/>
       <c r="D25" s="2" t="s">
         <v>23</v>
       </c>
@@ -3903,7 +3923,7 @@
         <v>25</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J25" s="5"/>
@@ -3916,10 +3936,10 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
       <c r="D26" s="2" t="s">
         <v>1</v>
       </c>
@@ -3931,7 +3951,7 @@
         <v>12</v>
       </c>
       <c r="H26" s="4"/>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J26" s="5"/>
@@ -3940,21 +3960,21 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="8"/>
       <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="17"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3962,46 +3982,46 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="8"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="D32" s="8" t="s">
+      <c r="B32" s="19"/>
+      <c r="D32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="15"/>
+      <c r="B33" s="17"/>
       <c r="D33" s="3" t="s">
         <v>0</v>
       </c>
@@ -4026,10 +4046,10 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="8"/>
       <c r="D34" s="2" t="s">
         <v>19</v>
       </c>
@@ -4041,7 +4061,7 @@
         <v>21</v>
       </c>
       <c r="H34" s="4"/>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J34" s="5"/>
@@ -4057,10 +4077,10 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="8"/>
       <c r="D35" s="2" t="s">
         <v>23</v>
       </c>
@@ -4072,7 +4092,7 @@
         <v>25</v>
       </c>
       <c r="H35" s="4"/>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J35" s="5"/>
@@ -4085,10 +4105,10 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="8"/>
       <c r="D36" s="2" t="s">
         <v>1</v>
       </c>
@@ -4100,7 +4120,7 @@
         <v>12</v>
       </c>
       <c r="H36" s="4"/>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J36" s="5"/>
@@ -4109,21 +4129,21 @@
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="8"/>
       <c r="D37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="17"/>
+      <c r="H37" s="12"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -4131,46 +4151,46 @@
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="8"/>
     </row>
     <row r="39" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="D43" s="8" t="s">
+      <c r="B43" s="19"/>
+      <c r="D43" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="15"/>
+      <c r="B44" s="17"/>
       <c r="D44" s="3" t="s">
         <v>0</v>
       </c>
@@ -4195,10 +4215,10 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="8"/>
       <c r="D45" s="2" t="s">
         <v>19</v>
       </c>
@@ -4210,7 +4230,7 @@
         <v>21</v>
       </c>
       <c r="H45" s="4"/>
-      <c r="I45" s="18" t="s">
+      <c r="I45" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J45" s="5"/>
@@ -4226,10 +4246,10 @@
       </c>
     </row>
     <row r="46" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="9"/>
+      <c r="B46" s="8"/>
       <c r="D46" s="2" t="s">
         <v>23</v>
       </c>
@@ -4241,7 +4261,7 @@
         <v>25</v>
       </c>
       <c r="H46" s="4"/>
-      <c r="I46" s="18" t="s">
+      <c r="I46" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J46" s="5"/>
@@ -4254,10 +4274,10 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="8"/>
       <c r="D47" s="2" t="s">
         <v>1</v>
       </c>
@@ -4269,7 +4289,7 @@
         <v>12</v>
       </c>
       <c r="H47" s="4"/>
-      <c r="I47" s="18" t="s">
+      <c r="I47" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J47" s="5"/>
@@ -4278,21 +4298,21 @@
       <c r="M47" s="1"/>
     </row>
     <row r="48" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="8"/>
       <c r="D48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17" t="s">
+      <c r="F48" s="12"/>
+      <c r="G48" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="17"/>
+      <c r="H48" s="12"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -4300,46 +4320,46 @@
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="9"/>
+      <c r="B49" s="8"/>
     </row>
     <row r="50" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="9"/>
+      <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="9"/>
+      <c r="B51" s="8"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="D53" s="8" t="s">
+      <c r="B53" s="19"/>
+      <c r="D53" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B54" s="15"/>
+      <c r="B54" s="17"/>
       <c r="D54" s="3" t="s">
         <v>0</v>
       </c>
@@ -4364,10 +4384,10 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="9"/>
+      <c r="B55" s="8"/>
       <c r="D55" s="2" t="s">
         <v>19</v>
       </c>
@@ -4379,7 +4399,7 @@
         <v>21</v>
       </c>
       <c r="H55" s="4"/>
-      <c r="I55" s="18" t="s">
+      <c r="I55" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J55" s="5"/>
@@ -4395,10 +4415,10 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="9"/>
+      <c r="B56" s="8"/>
       <c r="D56" s="2" t="s">
         <v>23</v>
       </c>
@@ -4410,7 +4430,7 @@
         <v>25</v>
       </c>
       <c r="H56" s="4"/>
-      <c r="I56" s="18" t="s">
+      <c r="I56" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J56" s="5"/>
@@ -4423,10 +4443,10 @@
       </c>
     </row>
     <row r="57" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="9"/>
+      <c r="B57" s="8"/>
       <c r="D57" s="2" t="s">
         <v>1</v>
       </c>
@@ -4438,7 +4458,7 @@
         <v>12</v>
       </c>
       <c r="H57" s="4"/>
-      <c r="I57" s="18" t="s">
+      <c r="I57" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J57" s="5"/>
@@ -4447,21 +4467,21 @@
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="9"/>
+      <c r="B58" s="8"/>
       <c r="D58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E58" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17" t="s">
+      <c r="F58" s="12"/>
+      <c r="G58" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H58" s="17"/>
+      <c r="H58" s="12"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -4469,46 +4489,46 @@
       <c r="M58" s="1"/>
     </row>
     <row r="59" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="9"/>
+      <c r="B59" s="8"/>
     </row>
     <row r="60" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="9"/>
+      <c r="B60" s="8"/>
     </row>
     <row r="61" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="9"/>
+      <c r="B61" s="8"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="D63" s="8" t="s">
+      <c r="B63" s="19"/>
+      <c r="D63" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="15"/>
+      <c r="B64" s="17"/>
       <c r="D64" s="3" t="s">
         <v>0</v>
       </c>
@@ -4533,10 +4553,10 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="9"/>
+      <c r="B65" s="8"/>
       <c r="D65" s="2" t="s">
         <v>19</v>
       </c>
@@ -4548,7 +4568,7 @@
         <v>21</v>
       </c>
       <c r="H65" s="4"/>
-      <c r="I65" s="18" t="s">
+      <c r="I65" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J65" s="5"/>
@@ -4564,10 +4584,10 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B66" s="9"/>
+      <c r="B66" s="8"/>
       <c r="D66" s="2" t="s">
         <v>23</v>
       </c>
@@ -4579,7 +4599,7 @@
         <v>25</v>
       </c>
       <c r="H66" s="4"/>
-      <c r="I66" s="18" t="s">
+      <c r="I66" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J66" s="5"/>
@@ -4592,10 +4612,10 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B67" s="9"/>
+      <c r="B67" s="8"/>
       <c r="D67" s="2" t="s">
         <v>1</v>
       </c>
@@ -4607,7 +4627,7 @@
         <v>12</v>
       </c>
       <c r="H67" s="4"/>
-      <c r="I67" s="18" t="s">
+      <c r="I67" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J67" s="5"/>
@@ -4616,21 +4636,21 @@
       <c r="M67" s="1"/>
     </row>
     <row r="68" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="9"/>
+      <c r="B68" s="8"/>
       <c r="D68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17" t="s">
+      <c r="F68" s="12"/>
+      <c r="G68" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H68" s="17"/>
+      <c r="H68" s="12"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -4638,46 +4658,46 @@
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="9"/>
+      <c r="B69" s="8"/>
     </row>
     <row r="70" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B70" s="9"/>
+      <c r="B70" s="8"/>
     </row>
     <row r="71" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="9"/>
+      <c r="B71" s="8"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="D73" s="8" t="s">
+      <c r="B73" s="19"/>
+      <c r="D73" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B74" s="15"/>
+      <c r="B74" s="17"/>
       <c r="D74" s="3" t="s">
         <v>0</v>
       </c>
@@ -4702,10 +4722,10 @@
       </c>
     </row>
     <row r="75" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B75" s="9"/>
+      <c r="B75" s="8"/>
       <c r="D75" s="2" t="s">
         <v>19</v>
       </c>
@@ -4717,7 +4737,7 @@
         <v>21</v>
       </c>
       <c r="H75" s="4"/>
-      <c r="I75" s="18" t="s">
+      <c r="I75" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J75" s="5"/>
@@ -4733,10 +4753,10 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B76" s="9"/>
+      <c r="B76" s="8"/>
       <c r="D76" s="2" t="s">
         <v>23</v>
       </c>
@@ -4748,7 +4768,7 @@
         <v>25</v>
       </c>
       <c r="H76" s="4"/>
-      <c r="I76" s="18" t="s">
+      <c r="I76" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J76" s="5"/>
@@ -4761,10 +4781,10 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="9"/>
+      <c r="B77" s="8"/>
       <c r="D77" s="2" t="s">
         <v>1</v>
       </c>
@@ -4776,7 +4796,7 @@
         <v>12</v>
       </c>
       <c r="H77" s="4"/>
-      <c r="I77" s="18" t="s">
+      <c r="I77" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J77" s="5"/>
@@ -4785,21 +4805,21 @@
       <c r="M77" s="1"/>
     </row>
     <row r="78" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B78" s="9"/>
+      <c r="B78" s="8"/>
       <c r="D78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17" t="s">
+      <c r="F78" s="12"/>
+      <c r="G78" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H78" s="17"/>
+      <c r="H78" s="12"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -4807,46 +4827,46 @@
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B79" s="9"/>
+      <c r="B79" s="8"/>
     </row>
     <row r="80" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B80" s="9"/>
+      <c r="B80" s="8"/>
     </row>
     <row r="81" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B81" s="9"/>
+      <c r="B81" s="8"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="D84" s="8" t="s">
+      <c r="B84" s="19"/>
+      <c r="D84" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B85" s="15"/>
+      <c r="B85" s="17"/>
       <c r="D85" s="3" t="s">
         <v>0</v>
       </c>
@@ -4871,10 +4891,10 @@
       </c>
     </row>
     <row r="86" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="9"/>
+      <c r="B86" s="8"/>
       <c r="D86" s="2" t="s">
         <v>19</v>
       </c>
@@ -4886,7 +4906,7 @@
         <v>21</v>
       </c>
       <c r="H86" s="4"/>
-      <c r="I86" s="18" t="s">
+      <c r="I86" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J86" s="5"/>
@@ -4902,10 +4922,10 @@
       </c>
     </row>
     <row r="87" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="9"/>
+      <c r="B87" s="8"/>
       <c r="D87" s="2" t="s">
         <v>23</v>
       </c>
@@ -4917,7 +4937,7 @@
         <v>25</v>
       </c>
       <c r="H87" s="4"/>
-      <c r="I87" s="18" t="s">
+      <c r="I87" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J87" s="5"/>
@@ -4930,10 +4950,10 @@
       </c>
     </row>
     <row r="88" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B88" s="9"/>
+      <c r="B88" s="8"/>
       <c r="D88" s="2" t="s">
         <v>1</v>
       </c>
@@ -4945,7 +4965,7 @@
         <v>12</v>
       </c>
       <c r="H88" s="4"/>
-      <c r="I88" s="18" t="s">
+      <c r="I88" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J88" s="5"/>
@@ -4954,21 +4974,21 @@
       <c r="M88" s="1"/>
     </row>
     <row r="89" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B89" s="9"/>
+      <c r="B89" s="8"/>
       <c r="D89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="17" t="s">
+      <c r="E89" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17" t="s">
+      <c r="F89" s="12"/>
+      <c r="G89" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H89" s="17"/>
+      <c r="H89" s="12"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -4976,46 +4996,46 @@
       <c r="M89" s="1"/>
     </row>
     <row r="90" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="9"/>
+      <c r="B90" s="8"/>
     </row>
     <row r="91" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B91" s="9"/>
+      <c r="B91" s="8"/>
     </row>
     <row r="92" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B92" s="9"/>
+      <c r="B92" s="8"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="13"/>
-      <c r="D94" s="8" t="s">
+      <c r="B94" s="19"/>
+      <c r="D94" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B95" s="15"/>
+      <c r="B95" s="17"/>
       <c r="D95" s="3" t="s">
         <v>0</v>
       </c>
@@ -5040,10 +5060,10 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B96" s="9"/>
+      <c r="B96" s="8"/>
       <c r="D96" s="2" t="s">
         <v>19</v>
       </c>
@@ -5055,7 +5075,7 @@
         <v>21</v>
       </c>
       <c r="H96" s="4"/>
-      <c r="I96" s="18" t="s">
+      <c r="I96" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J96" s="5"/>
@@ -5071,10 +5091,10 @@
       </c>
     </row>
     <row r="97" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B97" s="9"/>
+      <c r="B97" s="8"/>
       <c r="D97" s="2" t="s">
         <v>23</v>
       </c>
@@ -5086,7 +5106,7 @@
         <v>25</v>
       </c>
       <c r="H97" s="4"/>
-      <c r="I97" s="18" t="s">
+      <c r="I97" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J97" s="5"/>
@@ -5099,10 +5119,10 @@
       </c>
     </row>
     <row r="98" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B98" s="9"/>
+      <c r="B98" s="8"/>
       <c r="D98" s="2" t="s">
         <v>1</v>
       </c>
@@ -5114,7 +5134,7 @@
         <v>12</v>
       </c>
       <c r="H98" s="4"/>
-      <c r="I98" s="18" t="s">
+      <c r="I98" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J98" s="5"/>
@@ -5123,21 +5143,21 @@
       <c r="M98" s="1"/>
     </row>
     <row r="99" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B99" s="9"/>
+      <c r="B99" s="8"/>
       <c r="D99" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="17" t="s">
+      <c r="E99" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17" t="s">
+      <c r="F99" s="12"/>
+      <c r="G99" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H99" s="17"/>
+      <c r="H99" s="12"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -5145,46 +5165,46 @@
       <c r="M99" s="1"/>
     </row>
     <row r="100" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B100" s="9"/>
+      <c r="B100" s="8"/>
     </row>
     <row r="101" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B101" s="9"/>
+      <c r="B101" s="8"/>
     </row>
     <row r="102" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B102" s="9"/>
+      <c r="B102" s="8"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B104" s="13"/>
-      <c r="D104" s="8" t="s">
+      <c r="B104" s="19"/>
+      <c r="D104" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="20"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B105" s="15"/>
+      <c r="B105" s="17"/>
       <c r="D105" s="3" t="s">
         <v>0</v>
       </c>
@@ -5209,10 +5229,10 @@
       </c>
     </row>
     <row r="106" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B106" s="9"/>
+      <c r="B106" s="8"/>
       <c r="D106" s="2" t="s">
         <v>19</v>
       </c>
@@ -5224,7 +5244,7 @@
         <v>21</v>
       </c>
       <c r="H106" s="4"/>
-      <c r="I106" s="18" t="s">
+      <c r="I106" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J106" s="5"/>
@@ -5240,10 +5260,10 @@
       </c>
     </row>
     <row r="107" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B107" s="9"/>
+      <c r="B107" s="8"/>
       <c r="D107" s="2" t="s">
         <v>23</v>
       </c>
@@ -5255,7 +5275,7 @@
         <v>25</v>
       </c>
       <c r="H107" s="4"/>
-      <c r="I107" s="18" t="s">
+      <c r="I107" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J107" s="5"/>
@@ -5268,10 +5288,10 @@
       </c>
     </row>
     <row r="108" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B108" s="9"/>
+      <c r="B108" s="8"/>
       <c r="D108" s="2" t="s">
         <v>1</v>
       </c>
@@ -5283,7 +5303,7 @@
         <v>12</v>
       </c>
       <c r="H108" s="4"/>
-      <c r="I108" s="18" t="s">
+      <c r="I108" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J108" s="5"/>
@@ -5292,21 +5312,21 @@
       <c r="M108" s="1"/>
     </row>
     <row r="109" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B109" s="9"/>
+      <c r="B109" s="8"/>
       <c r="D109" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E109" s="17" t="s">
+      <c r="E109" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17" t="s">
+      <c r="F109" s="12"/>
+      <c r="G109" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H109" s="17"/>
+      <c r="H109" s="12"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -5314,46 +5334,46 @@
       <c r="M109" s="1"/>
     </row>
     <row r="110" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B110" s="9"/>
+      <c r="B110" s="8"/>
     </row>
     <row r="111" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B111" s="9"/>
+      <c r="B111" s="8"/>
     </row>
     <row r="112" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B112" s="9"/>
+      <c r="B112" s="8"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B114" s="13"/>
-      <c r="D114" s="8" t="s">
+      <c r="B114" s="19"/>
+      <c r="D114" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="8"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="20"/>
+      <c r="K114" s="20"/>
+      <c r="L114" s="20"/>
+      <c r="M114" s="20"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B115" s="15"/>
+      <c r="B115" s="17"/>
       <c r="D115" s="3" t="s">
         <v>0</v>
       </c>
@@ -5378,10 +5398,10 @@
       </c>
     </row>
     <row r="116" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B116" s="9"/>
+      <c r="B116" s="8"/>
       <c r="D116" s="2" t="s">
         <v>19</v>
       </c>
@@ -5393,7 +5413,7 @@
         <v>21</v>
       </c>
       <c r="H116" s="4"/>
-      <c r="I116" s="18" t="s">
+      <c r="I116" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J116" s="5"/>
@@ -5409,10 +5429,10 @@
       </c>
     </row>
     <row r="117" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B117" s="9"/>
+      <c r="B117" s="8"/>
       <c r="D117" s="2" t="s">
         <v>23</v>
       </c>
@@ -5424,7 +5444,7 @@
         <v>25</v>
       </c>
       <c r="H117" s="4"/>
-      <c r="I117" s="18" t="s">
+      <c r="I117" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J117" s="5"/>
@@ -5437,10 +5457,10 @@
       </c>
     </row>
     <row r="118" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B118" s="9"/>
+      <c r="B118" s="8"/>
       <c r="D118" s="2" t="s">
         <v>1</v>
       </c>
@@ -5452,7 +5472,7 @@
         <v>12</v>
       </c>
       <c r="H118" s="4"/>
-      <c r="I118" s="18" t="s">
+      <c r="I118" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J118" s="5"/>
@@ -5461,21 +5481,21 @@
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B119" s="9"/>
+      <c r="B119" s="8"/>
       <c r="D119" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E119" s="17" t="s">
+      <c r="E119" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17" t="s">
+      <c r="F119" s="12"/>
+      <c r="G119" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H119" s="17"/>
+      <c r="H119" s="12"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
@@ -5483,46 +5503,46 @@
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B120" s="9"/>
+      <c r="B120" s="8"/>
     </row>
     <row r="121" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B121" s="9"/>
+      <c r="B121" s="8"/>
     </row>
     <row r="122" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="9"/>
+      <c r="B122" s="8"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B125" s="13"/>
-      <c r="D125" s="8" t="s">
+      <c r="B125" s="19"/>
+      <c r="D125" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="20"/>
+      <c r="K125" s="20"/>
+      <c r="L125" s="20"/>
+      <c r="M125" s="20"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B126" s="15"/>
+      <c r="B126" s="17"/>
       <c r="D126" s="3" t="s">
         <v>0</v>
       </c>
@@ -5547,10 +5567,10 @@
       </c>
     </row>
     <row r="127" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B127" s="9"/>
+      <c r="B127" s="8"/>
       <c r="D127" s="2" t="s">
         <v>19</v>
       </c>
@@ -5562,7 +5582,7 @@
         <v>21</v>
       </c>
       <c r="H127" s="4"/>
-      <c r="I127" s="18" t="s">
+      <c r="I127" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J127" s="5"/>
@@ -5578,10 +5598,10 @@
       </c>
     </row>
     <row r="128" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B128" s="9"/>
+      <c r="B128" s="8"/>
       <c r="D128" s="2" t="s">
         <v>23</v>
       </c>
@@ -5593,7 +5613,7 @@
         <v>25</v>
       </c>
       <c r="H128" s="4"/>
-      <c r="I128" s="18" t="s">
+      <c r="I128" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J128" s="5"/>
@@ -5606,10 +5626,10 @@
       </c>
     </row>
     <row r="129" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B129" s="9"/>
+      <c r="B129" s="8"/>
       <c r="D129" s="2" t="s">
         <v>1</v>
       </c>
@@ -5621,7 +5641,7 @@
         <v>12</v>
       </c>
       <c r="H129" s="4"/>
-      <c r="I129" s="18" t="s">
+      <c r="I129" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J129" s="5"/>
@@ -5630,21 +5650,21 @@
       <c r="M129" s="1"/>
     </row>
     <row r="130" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B130" s="9"/>
+      <c r="B130" s="8"/>
       <c r="D130" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E130" s="17" t="s">
+      <c r="E130" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F130" s="17"/>
-      <c r="G130" s="17" t="s">
+      <c r="F130" s="12"/>
+      <c r="G130" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H130" s="17"/>
+      <c r="H130" s="12"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -5652,46 +5672,46 @@
       <c r="M130" s="1"/>
     </row>
     <row r="131" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B131" s="9"/>
+      <c r="B131" s="8"/>
     </row>
     <row r="132" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B132" s="9"/>
+      <c r="B132" s="8"/>
     </row>
     <row r="133" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B133" s="9"/>
+      <c r="B133" s="8"/>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
+      <c r="A135" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B135" s="13"/>
-      <c r="D135" s="8" t="s">
+      <c r="B135" s="19"/>
+      <c r="D135" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8"/>
-      <c r="J135" s="8"/>
-      <c r="K135" s="8"/>
-      <c r="L135" s="8"/>
-      <c r="M135" s="8"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="20"/>
+      <c r="K135" s="20"/>
+      <c r="L135" s="20"/>
+      <c r="M135" s="20"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B136" s="15"/>
+      <c r="B136" s="17"/>
       <c r="D136" s="3" t="s">
         <v>0</v>
       </c>
@@ -5716,10 +5736,10 @@
       </c>
     </row>
     <row r="137" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="10" t="s">
+      <c r="A137" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B137" s="9"/>
+      <c r="B137" s="8"/>
       <c r="D137" s="2" t="s">
         <v>19</v>
       </c>
@@ -5731,7 +5751,7 @@
         <v>21</v>
       </c>
       <c r="H137" s="4"/>
-      <c r="I137" s="18" t="s">
+      <c r="I137" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J137" s="5"/>
@@ -5747,10 +5767,10 @@
       </c>
     </row>
     <row r="138" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B138" s="9"/>
+      <c r="B138" s="8"/>
       <c r="D138" s="2" t="s">
         <v>23</v>
       </c>
@@ -5762,7 +5782,7 @@
         <v>25</v>
       </c>
       <c r="H138" s="4"/>
-      <c r="I138" s="18" t="s">
+      <c r="I138" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J138" s="5"/>
@@ -5775,10 +5795,10 @@
       </c>
     </row>
     <row r="139" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B139" s="9"/>
+      <c r="B139" s="8"/>
       <c r="D139" s="2" t="s">
         <v>1</v>
       </c>
@@ -5790,7 +5810,7 @@
         <v>12</v>
       </c>
       <c r="H139" s="4"/>
-      <c r="I139" s="18" t="s">
+      <c r="I139" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J139" s="5"/>
@@ -5799,21 +5819,21 @@
       <c r="M139" s="1"/>
     </row>
     <row r="140" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B140" s="9"/>
+      <c r="B140" s="8"/>
       <c r="D140" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E140" s="17" t="s">
+      <c r="E140" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F140" s="17"/>
-      <c r="G140" s="17" t="s">
+      <c r="F140" s="12"/>
+      <c r="G140" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H140" s="17"/>
+      <c r="H140" s="12"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
@@ -5821,46 +5841,46 @@
       <c r="M140" s="1"/>
     </row>
     <row r="141" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B141" s="9"/>
+      <c r="B141" s="8"/>
     </row>
     <row r="142" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B142" s="9"/>
+      <c r="B142" s="8"/>
     </row>
     <row r="143" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B143" s="9"/>
+      <c r="B143" s="8"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A145" s="12" t="s">
+      <c r="A145" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B145" s="13"/>
-      <c r="D145" s="8" t="s">
+      <c r="B145" s="19"/>
+      <c r="D145" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8"/>
-      <c r="J145" s="8"/>
-      <c r="K145" s="8"/>
-      <c r="L145" s="8"/>
-      <c r="M145" s="8"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="20"/>
+      <c r="K145" s="20"/>
+      <c r="L145" s="20"/>
+      <c r="M145" s="20"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B146" s="15"/>
+      <c r="B146" s="17"/>
       <c r="D146" s="3" t="s">
         <v>0</v>
       </c>
@@ -5885,10 +5905,10 @@
       </c>
     </row>
     <row r="147" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B147" s="9"/>
+      <c r="B147" s="8"/>
       <c r="D147" s="2" t="s">
         <v>19</v>
       </c>
@@ -5900,7 +5920,7 @@
         <v>21</v>
       </c>
       <c r="H147" s="4"/>
-      <c r="I147" s="18" t="s">
+      <c r="I147" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J147" s="5"/>
@@ -5916,10 +5936,10 @@
       </c>
     </row>
     <row r="148" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="10" t="s">
+      <c r="A148" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B148" s="9"/>
+      <c r="B148" s="8"/>
       <c r="D148" s="2" t="s">
         <v>23</v>
       </c>
@@ -5931,7 +5951,7 @@
         <v>25</v>
       </c>
       <c r="H148" s="4"/>
-      <c r="I148" s="18" t="s">
+      <c r="I148" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J148" s="5"/>
@@ -5944,10 +5964,10 @@
       </c>
     </row>
     <row r="149" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B149" s="9"/>
+      <c r="B149" s="8"/>
       <c r="D149" s="2" t="s">
         <v>1</v>
       </c>
@@ -5959,7 +5979,7 @@
         <v>12</v>
       </c>
       <c r="H149" s="4"/>
-      <c r="I149" s="18" t="s">
+      <c r="I149" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J149" s="5"/>
@@ -5968,21 +5988,21 @@
       <c r="M149" s="1"/>
     </row>
     <row r="150" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="9" t="s">
+      <c r="A150" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B150" s="9"/>
+      <c r="B150" s="8"/>
       <c r="D150" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E150" s="17" t="s">
+      <c r="E150" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F150" s="17"/>
-      <c r="G150" s="17" t="s">
+      <c r="F150" s="12"/>
+      <c r="G150" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H150" s="17"/>
+      <c r="H150" s="12"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
@@ -5990,46 +6010,46 @@
       <c r="M150" s="1"/>
     </row>
     <row r="151" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="10" t="s">
+      <c r="A151" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B151" s="9"/>
+      <c r="B151" s="8"/>
     </row>
     <row r="152" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="9" t="s">
+      <c r="A152" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B152" s="9"/>
+      <c r="B152" s="8"/>
     </row>
     <row r="153" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="9" t="s">
+      <c r="A153" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B153" s="9"/>
+      <c r="B153" s="8"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A155" s="12" t="s">
+      <c r="A155" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B155" s="13"/>
-      <c r="D155" s="8" t="s">
+      <c r="B155" s="19"/>
+      <c r="D155" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="8"/>
-      <c r="J155" s="8"/>
-      <c r="K155" s="8"/>
-      <c r="L155" s="8"/>
-      <c r="M155" s="8"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="20"/>
+      <c r="K155" s="20"/>
+      <c r="L155" s="20"/>
+      <c r="M155" s="20"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A156" s="14" t="s">
+      <c r="A156" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B156" s="15"/>
+      <c r="B156" s="17"/>
       <c r="D156" s="3" t="s">
         <v>0</v>
       </c>
@@ -6054,10 +6074,10 @@
       </c>
     </row>
     <row r="157" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="10" t="s">
+      <c r="A157" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B157" s="9"/>
+      <c r="B157" s="8"/>
       <c r="D157" s="2" t="s">
         <v>19</v>
       </c>
@@ -6069,7 +6089,7 @@
         <v>21</v>
       </c>
       <c r="H157" s="4"/>
-      <c r="I157" s="18" t="s">
+      <c r="I157" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J157" s="5"/>
@@ -6085,10 +6105,10 @@
       </c>
     </row>
     <row r="158" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B158" s="9"/>
+      <c r="B158" s="8"/>
       <c r="D158" s="2" t="s">
         <v>23</v>
       </c>
@@ -6100,7 +6120,7 @@
         <v>25</v>
       </c>
       <c r="H158" s="4"/>
-      <c r="I158" s="18" t="s">
+      <c r="I158" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J158" s="5"/>
@@ -6113,10 +6133,10 @@
       </c>
     </row>
     <row r="159" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B159" s="9"/>
+      <c r="B159" s="8"/>
       <c r="D159" s="2" t="s">
         <v>1</v>
       </c>
@@ -6128,7 +6148,7 @@
         <v>12</v>
       </c>
       <c r="H159" s="4"/>
-      <c r="I159" s="18" t="s">
+      <c r="I159" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J159" s="5"/>
@@ -6137,21 +6157,21 @@
       <c r="M159" s="1"/>
     </row>
     <row r="160" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="9" t="s">
+      <c r="A160" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B160" s="9"/>
+      <c r="B160" s="8"/>
       <c r="D160" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E160" s="17" t="s">
+      <c r="E160" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F160" s="17"/>
-      <c r="G160" s="17" t="s">
+      <c r="F160" s="12"/>
+      <c r="G160" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H160" s="17"/>
+      <c r="H160" s="12"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -6159,30 +6179,61 @@
       <c r="M160" s="1"/>
     </row>
     <row r="161" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="10" t="s">
+      <c r="A161" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B161" s="9"/>
+      <c r="B161" s="8"/>
     </row>
     <row r="162" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="9" t="s">
+      <c r="A162" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B162" s="9"/>
+      <c r="B162" s="8"/>
     </row>
     <row r="163" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B163" s="9"/>
+      <c r="B163" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="D145:M145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="D155:M155"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:M43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:M53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:M63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:M73"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="D84:M84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="D94:M94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="D104:M104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="D114:M114"/>
     <mergeCell ref="A156:B156"/>
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="D125:M125"/>
@@ -6190,42 +6241,11 @@
     <mergeCell ref="A135:B135"/>
     <mergeCell ref="D135:M135"/>
     <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="D104:M104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="D114:M114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="D84:M84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="D94:M94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:M63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:M73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:M43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:M53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:M12"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="D145:M145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:M155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
